--- a/data/pca/factorExposure/factorExposure_2010-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-17.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01648647236483721</v>
+        <v>-0.01722458211025475</v>
       </c>
       <c r="C2">
-        <v>-0.0007986701741374295</v>
+        <v>-0.001004826543948595</v>
       </c>
       <c r="D2">
-        <v>-0.01783857141416106</v>
+        <v>0.009408964062069572</v>
       </c>
       <c r="E2">
-        <v>0.02133321477578646</v>
+        <v>-0.0002955676745374498</v>
       </c>
       <c r="F2">
-        <v>-0.01305919434584433</v>
+        <v>-0.01239951899029374</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1208828627834327</v>
+        <v>-0.09413530729942501</v>
       </c>
       <c r="C4">
-        <v>0.103832242046662</v>
+        <v>-0.01740913911572167</v>
       </c>
       <c r="D4">
-        <v>0.01735560314919428</v>
+        <v>0.08303288496420529</v>
       </c>
       <c r="E4">
-        <v>0.01450500782205951</v>
+        <v>0.02965194739073444</v>
       </c>
       <c r="F4">
-        <v>-0.04418715118123721</v>
+        <v>0.03436540824965507</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1313045399518654</v>
+        <v>-0.1526867806689207</v>
       </c>
       <c r="C6">
-        <v>0.06189344242216164</v>
+        <v>-0.02471733882410302</v>
       </c>
       <c r="D6">
-        <v>-0.002119839501670097</v>
+        <v>-0.02322108456968685</v>
       </c>
       <c r="E6">
-        <v>-0.03371311549450106</v>
+        <v>0.009018126252579039</v>
       </c>
       <c r="F6">
-        <v>0.001277303864401483</v>
+        <v>0.04116750848213796</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06767484900569355</v>
+        <v>-0.06115413723622617</v>
       </c>
       <c r="C7">
-        <v>0.0683165269662693</v>
+        <v>0.000169638781781562</v>
       </c>
       <c r="D7">
-        <v>-0.007823240400608507</v>
+        <v>0.05203865811714244</v>
       </c>
       <c r="E7">
-        <v>0.02954697758954344</v>
+        <v>0.01645116340836352</v>
       </c>
       <c r="F7">
-        <v>-0.00642899336157478</v>
+        <v>0.05427147521770151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04381349933816428</v>
+        <v>-0.05905971537982964</v>
       </c>
       <c r="C8">
-        <v>0.03762779489394446</v>
+        <v>0.0128781032975763</v>
       </c>
       <c r="D8">
-        <v>-0.002463166529993859</v>
+        <v>0.03019986160875063</v>
       </c>
       <c r="E8">
-        <v>-0.02875680847622171</v>
+        <v>0.01404947347082607</v>
       </c>
       <c r="F8">
-        <v>-0.01394867120722923</v>
+        <v>-0.02899655060005775</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08639259754152014</v>
+        <v>-0.07198170902922747</v>
       </c>
       <c r="C9">
-        <v>0.07810855730133785</v>
+        <v>-0.0136293815951219</v>
       </c>
       <c r="D9">
-        <v>0.02550149500671333</v>
+        <v>0.08252681501108676</v>
       </c>
       <c r="E9">
-        <v>0.0113798990108992</v>
+        <v>0.0253972109357355</v>
       </c>
       <c r="F9">
-        <v>-0.02278599308916072</v>
+        <v>0.05606363157247394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1304372636886086</v>
+        <v>-0.09346052667218806</v>
       </c>
       <c r="C10">
-        <v>-0.1652692496776293</v>
+        <v>-0.01582747733398572</v>
       </c>
       <c r="D10">
-        <v>-0.02361960498852103</v>
+        <v>-0.1706685377847197</v>
       </c>
       <c r="E10">
-        <v>0.03104049439664953</v>
+        <v>-0.03637764359682957</v>
       </c>
       <c r="F10">
-        <v>-0.01275162708082175</v>
+        <v>-0.05215211466681065</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07308900994141065</v>
+        <v>-0.08807504346816832</v>
       </c>
       <c r="C11">
-        <v>0.07284793316853083</v>
+        <v>-0.01288781549819491</v>
       </c>
       <c r="D11">
-        <v>0.032008296044312</v>
+        <v>0.1132320829852742</v>
       </c>
       <c r="E11">
-        <v>-0.009458434230464869</v>
+        <v>0.04648485629755358</v>
       </c>
       <c r="F11">
-        <v>-0.02336730919671814</v>
+        <v>0.02403468084332204</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.06809937331656231</v>
+        <v>-0.09353711766241801</v>
       </c>
       <c r="C12">
-        <v>0.07608870331882096</v>
+        <v>-0.01085908505998818</v>
       </c>
       <c r="D12">
-        <v>0.0484916045477745</v>
+        <v>0.1197917585405638</v>
       </c>
       <c r="E12">
-        <v>0.02017045158417454</v>
+        <v>0.04600952634366787</v>
       </c>
       <c r="F12">
-        <v>0.008553297728461241</v>
+        <v>0.02361181970059241</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03731332327895692</v>
+        <v>-0.04400912228341754</v>
       </c>
       <c r="C13">
-        <v>0.042545358701067</v>
+        <v>-0.004519327180630501</v>
       </c>
       <c r="D13">
-        <v>-0.01793030361793534</v>
+        <v>0.04650484871534618</v>
       </c>
       <c r="E13">
-        <v>0.02852641183657691</v>
+        <v>-0.01200614462263794</v>
       </c>
       <c r="F13">
-        <v>-0.01263495290589959</v>
+        <v>0.01543838441654382</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02809940363546499</v>
+        <v>-0.02177320495319773</v>
       </c>
       <c r="C14">
-        <v>0.02502404609163152</v>
+        <v>-0.01482468379700097</v>
       </c>
       <c r="D14">
-        <v>0.02354314003713451</v>
+        <v>0.03251657115697307</v>
       </c>
       <c r="E14">
-        <v>-0.000359074052547791</v>
+        <v>0.01878026051271759</v>
       </c>
       <c r="F14">
-        <v>0.003946601291371048</v>
+        <v>0.02103538381141088</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01722178537785628</v>
+        <v>-0.03215230458843912</v>
       </c>
       <c r="C15">
-        <v>0.02441221240525745</v>
+        <v>-0.005650906165719153</v>
       </c>
       <c r="D15">
-        <v>-0.06350841085185534</v>
+        <v>0.0451999836675372</v>
       </c>
       <c r="E15">
-        <v>0.01583358469195861</v>
+        <v>0.009215846778975086</v>
       </c>
       <c r="F15">
-        <v>-0.01778062182241111</v>
+        <v>0.03161746771378446</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07958968476612903</v>
+        <v>-0.07484940063418317</v>
       </c>
       <c r="C16">
-        <v>0.07727506422554531</v>
+        <v>-0.004504594263499083</v>
       </c>
       <c r="D16">
-        <v>0.04068209835352623</v>
+        <v>0.1154456878963215</v>
       </c>
       <c r="E16">
-        <v>-0.02228506726615934</v>
+        <v>0.06150631998968367</v>
       </c>
       <c r="F16">
-        <v>-0.01183383326462653</v>
+        <v>0.033119653777539</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02157052478687326</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003727709529720221</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02076059272185209</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01130505189893976</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02315265709702179</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04103558792926228</v>
+        <v>-0.06137977978800702</v>
       </c>
       <c r="C20">
-        <v>0.02743687849626881</v>
+        <v>-0.002185672019043271</v>
       </c>
       <c r="D20">
-        <v>-0.02893864481994066</v>
+        <v>0.07219927364731432</v>
       </c>
       <c r="E20">
-        <v>0.02010087033725787</v>
+        <v>0.05405712323865182</v>
       </c>
       <c r="F20">
-        <v>0.01543500634491702</v>
+        <v>0.02856721500880961</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02362983041134638</v>
+        <v>-0.03881656447789809</v>
       </c>
       <c r="C21">
-        <v>0.02025900848625469</v>
+        <v>-0.007767898352756542</v>
       </c>
       <c r="D21">
-        <v>0.01479140901648874</v>
+        <v>0.03576071462395389</v>
       </c>
       <c r="E21">
-        <v>-0.003126879084521589</v>
+        <v>-0.008961355727133687</v>
       </c>
       <c r="F21">
-        <v>-0.009156519538548654</v>
+        <v>-0.01924855458122542</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05788549562062797</v>
+        <v>-0.04284405516499256</v>
       </c>
       <c r="C22">
-        <v>0.02837843970892176</v>
+        <v>-0.0003024934327070718</v>
       </c>
       <c r="D22">
-        <v>-0.6391341266710797</v>
+        <v>0.001410671954513016</v>
       </c>
       <c r="E22">
-        <v>0.1032576880378589</v>
+        <v>0.02947567370359825</v>
       </c>
       <c r="F22">
-        <v>0.1464262157050539</v>
+        <v>-0.01343301560160888</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05863751803707046</v>
+        <v>-0.04290952554427261</v>
       </c>
       <c r="C23">
-        <v>0.03039856213970024</v>
+        <v>-0.0003288310220111891</v>
       </c>
       <c r="D23">
-        <v>-0.6415728659466249</v>
+        <v>0.001598372078747297</v>
       </c>
       <c r="E23">
-        <v>0.1029356806687657</v>
+        <v>0.02986006428345256</v>
       </c>
       <c r="F23">
-        <v>0.145756658280697</v>
+        <v>-0.01289576743629582</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07981854345018161</v>
+        <v>-0.08134670632643408</v>
       </c>
       <c r="C24">
-        <v>0.07346736087910277</v>
+        <v>-0.004757622524670772</v>
       </c>
       <c r="D24">
-        <v>0.03584134489027305</v>
+        <v>0.1162135001512002</v>
       </c>
       <c r="E24">
-        <v>-0.004467018566709646</v>
+        <v>0.0493443720039787</v>
       </c>
       <c r="F24">
-        <v>-0.006292429895880317</v>
+        <v>0.02534621064045637</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07903853117344459</v>
+        <v>-0.08571359914910942</v>
       </c>
       <c r="C25">
-        <v>0.06937268680429656</v>
+        <v>-0.006715769397578243</v>
       </c>
       <c r="D25">
-        <v>0.05083266079680448</v>
+        <v>0.1042323976266717</v>
       </c>
       <c r="E25">
-        <v>0.007695273247174191</v>
+        <v>0.03221755717688893</v>
       </c>
       <c r="F25">
-        <v>-0.008979623838988522</v>
+        <v>0.03374325703919873</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0385167255977901</v>
+        <v>-0.05555856794218852</v>
       </c>
       <c r="C26">
-        <v>0.001528036083693312</v>
+        <v>-0.01557991044677035</v>
       </c>
       <c r="D26">
-        <v>-0.01397248374714164</v>
+        <v>0.03360280522199691</v>
       </c>
       <c r="E26">
-        <v>-0.02326648529347464</v>
+        <v>0.02555943366429853</v>
       </c>
       <c r="F26">
-        <v>0.05527398489651972</v>
+        <v>-0.007021049010372428</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1617394227161905</v>
+        <v>-0.139988823935872</v>
       </c>
       <c r="C28">
-        <v>-0.2665465472243942</v>
+        <v>-0.01355713012251758</v>
       </c>
       <c r="D28">
-        <v>0.000632030576352447</v>
+        <v>-0.2694151081545906</v>
       </c>
       <c r="E28">
-        <v>-0.06461606514464301</v>
+        <v>-0.06710497261972685</v>
       </c>
       <c r="F28">
-        <v>0.01018288567692365</v>
+        <v>0.034723575683317</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02785104140542391</v>
+        <v>-0.02706815842003897</v>
       </c>
       <c r="C29">
-        <v>0.02346826588583017</v>
+        <v>-0.009171742133266205</v>
       </c>
       <c r="D29">
-        <v>0.02579471868029022</v>
+        <v>0.03090394288686958</v>
       </c>
       <c r="E29">
-        <v>0.02711816334847748</v>
+        <v>0.01153564455013274</v>
       </c>
       <c r="F29">
-        <v>0.01833152249091239</v>
+        <v>-0.009730307122009559</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0976298314166635</v>
+        <v>-0.06434452803097243</v>
       </c>
       <c r="C30">
-        <v>0.07828284164542454</v>
+        <v>-0.006345875214757088</v>
       </c>
       <c r="D30">
-        <v>0.02653426534297916</v>
+        <v>0.08061031949310588</v>
       </c>
       <c r="E30">
-        <v>-0.07145239424775461</v>
+        <v>0.02378053559347151</v>
       </c>
       <c r="F30">
-        <v>0.189247192856798</v>
+        <v>0.1136405027603071</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0315556515941133</v>
+        <v>-0.04878858481960803</v>
       </c>
       <c r="C31">
-        <v>0.05794892693858944</v>
+        <v>-0.01518896128380249</v>
       </c>
       <c r="D31">
-        <v>0.003345962549639456</v>
+        <v>0.0289673881797777</v>
       </c>
       <c r="E31">
-        <v>0.02117442089145249</v>
+        <v>0.02757405536545976</v>
       </c>
       <c r="F31">
-        <v>-0.01150221371783677</v>
+        <v>-0.002792913579146989</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04790855797848558</v>
+        <v>-0.04813699712012363</v>
       </c>
       <c r="C32">
-        <v>0.01825707679148655</v>
+        <v>-0.0002966374730200012</v>
       </c>
       <c r="D32">
-        <v>0.05626825177669722</v>
+        <v>0.02989782458821975</v>
       </c>
       <c r="E32">
-        <v>-0.07337485070330489</v>
+        <v>0.02866515762816312</v>
       </c>
       <c r="F32">
-        <v>-0.02187410311715371</v>
+        <v>0.001788633748667303</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08352993307208359</v>
+        <v>-0.09040875803373202</v>
       </c>
       <c r="C33">
-        <v>0.06209907146231858</v>
+        <v>-0.009846058237835917</v>
       </c>
       <c r="D33">
-        <v>0.03524121173266208</v>
+        <v>0.09209054949305671</v>
       </c>
       <c r="E33">
-        <v>-0.003084724946460538</v>
+        <v>0.04590725711234885</v>
       </c>
       <c r="F33">
-        <v>0.003392468609017977</v>
+        <v>0.04020825391342271</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06877944523878289</v>
+        <v>-0.06900895168925315</v>
       </c>
       <c r="C34">
-        <v>0.06086300944378321</v>
+        <v>-0.01286803880897703</v>
       </c>
       <c r="D34">
-        <v>0.04064761261639797</v>
+        <v>0.09701659044786744</v>
       </c>
       <c r="E34">
-        <v>-0.007770558404957736</v>
+        <v>0.03424555444463046</v>
       </c>
       <c r="F34">
-        <v>-0.01283710608467372</v>
+        <v>0.04761595585577615</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01136343064041339</v>
+        <v>-0.02419745437628098</v>
       </c>
       <c r="C35">
-        <v>0.01033487083355694</v>
+        <v>-0.002662729701930834</v>
       </c>
       <c r="D35">
-        <v>-0.0002567175394510926</v>
+        <v>0.01077802565892652</v>
       </c>
       <c r="E35">
-        <v>0.01062103038779386</v>
+        <v>0.01113283795098904</v>
       </c>
       <c r="F35">
-        <v>0.005547847133440047</v>
+        <v>0.01184546827710948</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02244202050022548</v>
+        <v>-0.02480491939190831</v>
       </c>
       <c r="C36">
-        <v>0.0160891847533149</v>
+        <v>-0.0072168025870853</v>
       </c>
       <c r="D36">
-        <v>-0.01128625007056236</v>
+        <v>0.03774213648425362</v>
       </c>
       <c r="E36">
-        <v>-0.006370350566609516</v>
+        <v>0.01687929422343838</v>
       </c>
       <c r="F36">
-        <v>0.01380003821159998</v>
+        <v>0.00770583128495268</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0140612483252899</v>
+        <v>-0.002117377438467674</v>
       </c>
       <c r="C38">
-        <v>0.03100993287877495</v>
+        <v>-0.0003687194820190521</v>
       </c>
       <c r="D38">
-        <v>-0.02120530232927322</v>
+        <v>0.002232187443801965</v>
       </c>
       <c r="E38">
-        <v>0.03784696328779875</v>
+        <v>0.00264507018750425</v>
       </c>
       <c r="F38">
-        <v>0.06537146372537413</v>
+        <v>-0.001375582148559982</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.110084558660493</v>
+        <v>-0.1101796722722708</v>
       </c>
       <c r="C39">
-        <v>0.1001036915186531</v>
+        <v>-0.01839571839076942</v>
       </c>
       <c r="D39">
-        <v>0.1383581461986108</v>
+        <v>0.1491938271504532</v>
       </c>
       <c r="E39">
-        <v>-0.02548646882255567</v>
+        <v>0.05761624966357143</v>
       </c>
       <c r="F39">
-        <v>0.08476204426005149</v>
+        <v>0.0340772971928137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02521200050295701</v>
+        <v>-0.03760819549114448</v>
       </c>
       <c r="C40">
-        <v>0.06532244136263329</v>
+        <v>-0.0076480452451316</v>
       </c>
       <c r="D40">
-        <v>-0.02668971097820863</v>
+        <v>0.03113432478569694</v>
       </c>
       <c r="E40">
-        <v>0.06341012935979522</v>
+        <v>0.004585991051146206</v>
       </c>
       <c r="F40">
-        <v>-0.01134729900826215</v>
+        <v>-0.01978151987391083</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03354740078200671</v>
+        <v>-0.02656376174123846</v>
       </c>
       <c r="C41">
-        <v>0.02421367522040704</v>
+        <v>-0.006946411231495152</v>
       </c>
       <c r="D41">
-        <v>0.02136961952985478</v>
+        <v>0.0106335259697198</v>
       </c>
       <c r="E41">
-        <v>0.01744574285892953</v>
+        <v>0.01215012160494678</v>
       </c>
       <c r="F41">
-        <v>0.0105596092873107</v>
+        <v>-0.01039360095501338</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04286775976533713</v>
+        <v>-0.04206185646629556</v>
       </c>
       <c r="C43">
-        <v>0.03213477779593064</v>
+        <v>-0.007120690377932721</v>
       </c>
       <c r="D43">
-        <v>-0.006326910961623385</v>
+        <v>0.02071660687032338</v>
       </c>
       <c r="E43">
-        <v>0.009429366912802094</v>
+        <v>0.02572003120011485</v>
       </c>
       <c r="F43">
-        <v>0.03636970813566195</v>
+        <v>-0.01152149091831686</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1029570071487805</v>
+        <v>-0.07343669610946174</v>
       </c>
       <c r="C44">
-        <v>0.1133444470153123</v>
+        <v>-0.02268182077344384</v>
       </c>
       <c r="D44">
-        <v>-0.07820703714301537</v>
+        <v>0.09953816756305131</v>
       </c>
       <c r="E44">
-        <v>0.03977015375161422</v>
+        <v>0.06830268137598415</v>
       </c>
       <c r="F44">
-        <v>0.001855363782369111</v>
+        <v>0.1737039514632143</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02311094589055591</v>
+        <v>-0.02276396831978143</v>
       </c>
       <c r="C46">
-        <v>-0.001444496159513237</v>
+        <v>-0.004100203208779196</v>
       </c>
       <c r="D46">
-        <v>-0.02368929301532509</v>
+        <v>0.01112385513025916</v>
       </c>
       <c r="E46">
-        <v>0.03039406959168945</v>
+        <v>0.02334629290181009</v>
       </c>
       <c r="F46">
-        <v>0.03576416229315105</v>
+        <v>-0.001743526116263846</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04061637036053104</v>
+        <v>-0.05229958943663283</v>
       </c>
       <c r="C47">
-        <v>0.03084461695123253</v>
+        <v>-0.00333603075321904</v>
       </c>
       <c r="D47">
-        <v>0.002278742146583411</v>
+        <v>0.01219590552635626</v>
       </c>
       <c r="E47">
-        <v>0.01380549835222868</v>
+        <v>0.02151485225003398</v>
       </c>
       <c r="F47">
-        <v>0.002963882642926266</v>
+        <v>-0.04560454895790356</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04206674826300574</v>
+        <v>-0.04764525752998008</v>
       </c>
       <c r="C48">
-        <v>0.01697998877397251</v>
+        <v>-0.003274660066762849</v>
       </c>
       <c r="D48">
-        <v>0.01366389302741558</v>
+        <v>0.04658391352155324</v>
       </c>
       <c r="E48">
-        <v>0.0148741245000533</v>
+        <v>-0.005555130022612892</v>
       </c>
       <c r="F48">
-        <v>-0.01915763470374529</v>
+        <v>0.01343304359437501</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2209522182762887</v>
+        <v>-0.2029420394998437</v>
       </c>
       <c r="C49">
-        <v>0.001037727108562151</v>
+        <v>-0.01705614163345464</v>
       </c>
       <c r="D49">
-        <v>0.04152202606109241</v>
+        <v>-0.009712791683161272</v>
       </c>
       <c r="E49">
-        <v>0.0998349430929472</v>
+        <v>0.03753063444428661</v>
       </c>
       <c r="F49">
-        <v>-0.01442658688437009</v>
+        <v>0.02986552119483039</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03945669110355887</v>
+        <v>-0.04854976195361218</v>
       </c>
       <c r="C50">
-        <v>0.03133799883536006</v>
+        <v>-0.01118579295847653</v>
       </c>
       <c r="D50">
-        <v>0.01903663087358292</v>
+        <v>0.02611850245747629</v>
       </c>
       <c r="E50">
-        <v>0.002498683536788382</v>
+        <v>0.02876373843338157</v>
       </c>
       <c r="F50">
-        <v>0.03032792223353736</v>
+        <v>0.007921316374565095</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02262825747104094</v>
+        <v>-0.003045321273213347</v>
       </c>
       <c r="C51">
-        <v>-0.009172345730703009</v>
+        <v>-0.0007620498544865042</v>
       </c>
       <c r="D51">
-        <v>-0.002821161125935282</v>
+        <v>-0.00215483952524507</v>
       </c>
       <c r="E51">
-        <v>0.0179036857755298</v>
+        <v>0.0006289089950353202</v>
       </c>
       <c r="F51">
-        <v>-0.02614137438457405</v>
+        <v>0.005652364980759166</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.07262964222121851</v>
+        <v>-0.1444535389939005</v>
       </c>
       <c r="C52">
-        <v>0.06545369313598044</v>
+        <v>-0.01320773851515627</v>
       </c>
       <c r="D52">
-        <v>0.02105264989498612</v>
+        <v>0.05007883155349573</v>
       </c>
       <c r="E52">
-        <v>0.002312586028018734</v>
+        <v>0.02071259338064941</v>
       </c>
       <c r="F52">
-        <v>0.05278946714844584</v>
+        <v>0.03498296187783424</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1579608516364876</v>
+        <v>-0.1735703586088764</v>
       </c>
       <c r="C53">
-        <v>0.06587330971306206</v>
+        <v>-0.01598911181543021</v>
       </c>
       <c r="D53">
-        <v>-0.01290092801951729</v>
+        <v>0.0136714867637405</v>
       </c>
       <c r="E53">
-        <v>0.04515003284918615</v>
+        <v>0.0362466656701665</v>
       </c>
       <c r="F53">
-        <v>0.07245988444735897</v>
+        <v>0.06781174319737933</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05659397332101468</v>
+        <v>-0.02262736804826302</v>
       </c>
       <c r="C54">
-        <v>0.06881424956420111</v>
+        <v>-0.01272881612861869</v>
       </c>
       <c r="D54">
-        <v>0.0009624804118621471</v>
+        <v>0.03380639883493913</v>
       </c>
       <c r="E54">
-        <v>0.01386409545252772</v>
+        <v>0.01516509038335546</v>
       </c>
       <c r="F54">
-        <v>-0.0321850109450357</v>
+        <v>-0.003251438057465214</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08386708517252883</v>
+        <v>-0.1145583429253652</v>
       </c>
       <c r="C55">
-        <v>0.05368950681529611</v>
+        <v>-0.0146732454027911</v>
       </c>
       <c r="D55">
-        <v>0.03391740973899637</v>
+        <v>0.01271349401090488</v>
       </c>
       <c r="E55">
-        <v>0.02011793093229868</v>
+        <v>0.03038649970642028</v>
       </c>
       <c r="F55">
-        <v>0.0193674299987634</v>
+        <v>0.05072359179381642</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1443495529804115</v>
+        <v>-0.1776359194266138</v>
       </c>
       <c r="C56">
-        <v>0.08210157157958706</v>
+        <v>-0.01344144621072908</v>
       </c>
       <c r="D56">
-        <v>0.0295007591299054</v>
+        <v>0.007901548651197151</v>
       </c>
       <c r="E56">
-        <v>0.07344124741799146</v>
+        <v>0.04026029373810178</v>
       </c>
       <c r="F56">
-        <v>0.04841784859822774</v>
+        <v>0.03911912856400714</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05005973940458388</v>
+        <v>-0.04695088661620471</v>
       </c>
       <c r="C58">
-        <v>0.03847524021828257</v>
+        <v>-0.002966873260076959</v>
       </c>
       <c r="D58">
-        <v>-0.03803066782472932</v>
+        <v>0.06350772579938285</v>
       </c>
       <c r="E58">
-        <v>0.02476911394242527</v>
+        <v>0.02174112679875957</v>
       </c>
       <c r="F58">
-        <v>0.03033103970082518</v>
+        <v>-0.05067468544274676</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.216151060480461</v>
+        <v>-0.1708353370926541</v>
       </c>
       <c r="C59">
-        <v>-0.2296012167467934</v>
+        <v>-0.01515099299677882</v>
       </c>
       <c r="D59">
-        <v>0.04312697086128734</v>
+        <v>-0.2280098575828376</v>
       </c>
       <c r="E59">
-        <v>-0.01951483149433836</v>
+        <v>-0.04856631267155642</v>
       </c>
       <c r="F59">
-        <v>-0.08510115550069164</v>
+        <v>-0.03282067650680379</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2238719574296427</v>
+        <v>-0.2381767843201358</v>
       </c>
       <c r="C60">
-        <v>0.1181139835100508</v>
+        <v>0.00418679127670778</v>
       </c>
       <c r="D60">
-        <v>0.0817620075471555</v>
+        <v>0.04936312890934366</v>
       </c>
       <c r="E60">
-        <v>0.1339297970039901</v>
+        <v>0.008974010518094279</v>
       </c>
       <c r="F60">
-        <v>0.01387915612800991</v>
+        <v>-0.03703520123548257</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.109990107094384</v>
+        <v>-0.0849008563742511</v>
       </c>
       <c r="C61">
-        <v>0.07586195415800522</v>
+        <v>-0.01433105219506731</v>
       </c>
       <c r="D61">
-        <v>0.08320917149602236</v>
+        <v>0.1100011524152281</v>
       </c>
       <c r="E61">
-        <v>0.01149182113581415</v>
+        <v>0.03947848345927993</v>
       </c>
       <c r="F61">
-        <v>0.03788432128629265</v>
+        <v>0.01914201775441094</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1424604668966553</v>
+        <v>-0.1704136620219707</v>
       </c>
       <c r="C62">
-        <v>0.06898231064566122</v>
+        <v>-0.01741616265437684</v>
       </c>
       <c r="D62">
-        <v>0.001106870538322833</v>
+        <v>0.01163698868582219</v>
       </c>
       <c r="E62">
-        <v>0.05683196476854226</v>
+        <v>0.03763737414112416</v>
       </c>
       <c r="F62">
-        <v>0.04719280478130528</v>
+        <v>0.02025435696063396</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0459703818930637</v>
+        <v>-0.04261848182489673</v>
       </c>
       <c r="C63">
-        <v>0.03073881587492788</v>
+        <v>-0.00398974894315216</v>
       </c>
       <c r="D63">
-        <v>0.008781261107358908</v>
+        <v>0.04867131689360048</v>
       </c>
       <c r="E63">
-        <v>-0.02730980206919922</v>
+        <v>0.01979173509990667</v>
       </c>
       <c r="F63">
-        <v>0.002748997755866352</v>
+        <v>0.01018860237711158</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09125505223659081</v>
+        <v>-0.1127410740112623</v>
       </c>
       <c r="C64">
-        <v>0.05128407887867228</v>
+        <v>-0.01205073431443157</v>
       </c>
       <c r="D64">
-        <v>0.009339065151240368</v>
+        <v>0.04094272230396567</v>
       </c>
       <c r="E64">
-        <v>0.06880295467995996</v>
+        <v>0.0204647828338232</v>
       </c>
       <c r="F64">
-        <v>0.05710219412372714</v>
+        <v>0.01999549352056963</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.121885303503538</v>
+        <v>-0.1441084825806173</v>
       </c>
       <c r="C65">
-        <v>0.05254839113008513</v>
+        <v>-0.03124131997305936</v>
       </c>
       <c r="D65">
-        <v>0.01689884633853916</v>
+        <v>-0.04477822954753601</v>
       </c>
       <c r="E65">
-        <v>-0.04542608928889301</v>
+        <v>0.0004605093858540169</v>
       </c>
       <c r="F65">
-        <v>0.04905752470185942</v>
+        <v>0.04310344670394419</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1224824508751288</v>
+        <v>-0.1317300131408997</v>
       </c>
       <c r="C66">
-        <v>0.1209375604217053</v>
+        <v>-0.01587349470571857</v>
       </c>
       <c r="D66">
-        <v>0.1302910499972446</v>
+        <v>0.1368553394860418</v>
       </c>
       <c r="E66">
-        <v>-0.004572043102633066</v>
+        <v>0.06436345983998987</v>
       </c>
       <c r="F66">
-        <v>0.1214935460701806</v>
+        <v>0.03957206796548755</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06167786255395149</v>
+        <v>-0.06306567697053715</v>
       </c>
       <c r="C67">
-        <v>0.03786063007027225</v>
+        <v>-0.003599904262357696</v>
       </c>
       <c r="D67">
-        <v>-0.03473421475826179</v>
+        <v>0.05484395500998723</v>
       </c>
       <c r="E67">
-        <v>0.01718846371757195</v>
+        <v>0.01998361324187013</v>
       </c>
       <c r="F67">
-        <v>0.04990005308027414</v>
+        <v>-0.04277895552209661</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1370910193688225</v>
+        <v>-0.1142974076260162</v>
       </c>
       <c r="C68">
-        <v>-0.2397116579788393</v>
+        <v>-0.02457106412180564</v>
       </c>
       <c r="D68">
-        <v>0.01269212347005749</v>
+        <v>-0.2666062380967455</v>
       </c>
       <c r="E68">
-        <v>-0.06621438276284852</v>
+        <v>-0.08530949650895989</v>
       </c>
       <c r="F68">
-        <v>-0.000312148298330319</v>
+        <v>0.0407448543600545</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03873646355102737</v>
+        <v>-0.03970536433251983</v>
       </c>
       <c r="C69">
-        <v>-0.008034751475716194</v>
+        <v>-0.001115851096668072</v>
       </c>
       <c r="D69">
-        <v>-0.0001837466291333367</v>
+        <v>0.009115333564175222</v>
       </c>
       <c r="E69">
-        <v>0.006990038585950551</v>
+        <v>0.02408263714734202</v>
       </c>
       <c r="F69">
-        <v>0.03849156403768873</v>
+        <v>-0.0137258041032003</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03930968945935588</v>
+        <v>-0.06400416643652133</v>
       </c>
       <c r="C70">
-        <v>0.01523152635949658</v>
+        <v>0.02760160508184057</v>
       </c>
       <c r="D70">
-        <v>0.03809797631273099</v>
+        <v>0.02616700101321742</v>
       </c>
       <c r="E70">
-        <v>0.02290128794365023</v>
+        <v>-0.04868368778205519</v>
       </c>
       <c r="F70">
-        <v>0.05861541653503875</v>
+        <v>-0.3045398681375789</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1536838678526374</v>
+        <v>-0.1330630929206223</v>
       </c>
       <c r="C71">
-        <v>-0.2627472314941353</v>
+        <v>-0.02870449018898025</v>
       </c>
       <c r="D71">
-        <v>0.005402635907392196</v>
+        <v>-0.2822929558446883</v>
       </c>
       <c r="E71">
-        <v>-0.03468623913659073</v>
+        <v>-0.09326003945495465</v>
       </c>
       <c r="F71">
-        <v>0.04757592378494908</v>
+        <v>0.04373774430848736</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1404109591887262</v>
+        <v>-0.1386714281239103</v>
       </c>
       <c r="C72">
-        <v>0.02848386474617768</v>
+        <v>-0.02436424570330899</v>
       </c>
       <c r="D72">
-        <v>0.003791897244752059</v>
+        <v>0.004418135099011548</v>
       </c>
       <c r="E72">
-        <v>0.01205349697906144</v>
+        <v>0.04338389338703538</v>
       </c>
       <c r="F72">
-        <v>0.04317150671138945</v>
+        <v>0.02321987912921996</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2129861173930339</v>
+        <v>-0.2057922231075394</v>
       </c>
       <c r="C73">
-        <v>0.03879842957669935</v>
+        <v>-0.0115379670200203</v>
       </c>
       <c r="D73">
-        <v>0.1238496770600201</v>
+        <v>0.01624921085705784</v>
       </c>
       <c r="E73">
-        <v>0.1603071344154584</v>
+        <v>0.06399059507169062</v>
       </c>
       <c r="F73">
-        <v>0.06922297388678714</v>
+        <v>0.02933687015175212</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1061061309340626</v>
+        <v>-0.09413631916004696</v>
       </c>
       <c r="C74">
-        <v>0.09152525045636442</v>
+        <v>-0.01196852113937459</v>
       </c>
       <c r="D74">
-        <v>0.01023325535965118</v>
+        <v>0.02367600717517154</v>
       </c>
       <c r="E74">
-        <v>0.02207497127777312</v>
+        <v>0.04927062289568122</v>
       </c>
       <c r="F74">
-        <v>0.08493465417856894</v>
+        <v>0.04308743497861405</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09914155557475178</v>
+        <v>-0.1300171957972131</v>
       </c>
       <c r="C75">
-        <v>0.06680210725569531</v>
+        <v>-0.02624446059063474</v>
       </c>
       <c r="D75">
-        <v>0.008416786370160306</v>
+        <v>0.03345437555355783</v>
       </c>
       <c r="E75">
-        <v>0.01767058880650607</v>
+        <v>0.05982363435091941</v>
       </c>
       <c r="F75">
-        <v>-0.0166490918592267</v>
+        <v>0.01277199988543169</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0403519052325062</v>
+        <v>-0.005514430869249635</v>
       </c>
       <c r="C76">
-        <v>0.01611496066679384</v>
+        <v>-0.001250071254361282</v>
       </c>
       <c r="D76">
-        <v>0.006132468118562062</v>
+        <v>-0.000539716445641327</v>
       </c>
       <c r="E76">
-        <v>0.03401769340630323</v>
+        <v>0.003740722864444295</v>
       </c>
       <c r="F76">
-        <v>-0.008342598032002763</v>
+        <v>0.004304147185656249</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06706895261948857</v>
+        <v>-0.07950836230088261</v>
       </c>
       <c r="C77">
-        <v>0.03447172486391298</v>
+        <v>-0.01051239950292446</v>
       </c>
       <c r="D77">
-        <v>0.03272516518133872</v>
+        <v>0.1092333760984948</v>
       </c>
       <c r="E77">
-        <v>0.03229936067754305</v>
+        <v>0.03604862392386481</v>
       </c>
       <c r="F77">
-        <v>-0.0270119048983978</v>
+        <v>0.03084760910777845</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.131577393913545</v>
+        <v>-0.1070142458149081</v>
       </c>
       <c r="C78">
-        <v>0.1255647379685252</v>
+        <v>-0.04227874474003099</v>
       </c>
       <c r="D78">
-        <v>-0.1780083302730845</v>
+        <v>0.1190800365466606</v>
       </c>
       <c r="E78">
-        <v>-0.07781798390195048</v>
+        <v>0.08637784897523057</v>
       </c>
       <c r="F78">
-        <v>-0.832306149303196</v>
+        <v>0.07473261954802721</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1329482975245264</v>
+        <v>-0.1640042228302455</v>
       </c>
       <c r="C79">
-        <v>0.08122793845383672</v>
+        <v>-0.0202840854480996</v>
       </c>
       <c r="D79">
-        <v>-0.004079926521934608</v>
+        <v>0.01942555991222306</v>
       </c>
       <c r="E79">
-        <v>0.05290909650061887</v>
+        <v>0.04729944486750478</v>
       </c>
       <c r="F79">
-        <v>0.03958597833339284</v>
+        <v>0.01161074629676642</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07270013858570437</v>
+        <v>-0.08026110897631036</v>
       </c>
       <c r="C80">
-        <v>0.0570996304030866</v>
+        <v>0.0004851928089453569</v>
       </c>
       <c r="D80">
-        <v>0.07737534358018013</v>
+        <v>0.05711468342678198</v>
       </c>
       <c r="E80">
-        <v>-0.001529096151721341</v>
+        <v>0.03304748347001167</v>
       </c>
       <c r="F80">
-        <v>0.03125402708491124</v>
+        <v>-0.01619047045427737</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.131017208282463</v>
+        <v>-0.1236855188244103</v>
       </c>
       <c r="C81">
-        <v>0.08672941389452742</v>
+        <v>-0.03024279597043361</v>
       </c>
       <c r="D81">
-        <v>-0.00070092818970325</v>
+        <v>0.01926426087905487</v>
       </c>
       <c r="E81">
-        <v>0.04613697098643289</v>
+        <v>0.05968626688008818</v>
       </c>
       <c r="F81">
-        <v>0.01183199431115569</v>
+        <v>0.003817998641726177</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1340051508979594</v>
+        <v>-0.1635770687025067</v>
       </c>
       <c r="C82">
-        <v>0.06101506829988464</v>
+        <v>-0.02087116706330748</v>
       </c>
       <c r="D82">
-        <v>0.0190865867666567</v>
+        <v>0.01658151014265534</v>
       </c>
       <c r="E82">
-        <v>0.02487647034193682</v>
+        <v>0.03430775394607846</v>
       </c>
       <c r="F82">
-        <v>0.06651080321460691</v>
+        <v>0.06164403931738791</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08827329806388094</v>
+        <v>-0.06497505982174095</v>
       </c>
       <c r="C83">
-        <v>0.1661425225898166</v>
+        <v>-0.003933789521797009</v>
       </c>
       <c r="D83">
-        <v>0.01273414507729289</v>
+        <v>0.04957340495009614</v>
       </c>
       <c r="E83">
-        <v>0.008604646535140583</v>
+        <v>0.005761759535533896</v>
       </c>
       <c r="F83">
-        <v>0.01093803466361937</v>
+        <v>-0.04180180848311643</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05657263092930357</v>
+        <v>-0.05935940164036738</v>
       </c>
       <c r="C84">
-        <v>-0.1068318667659647</v>
+        <v>-0.01145123088258142</v>
       </c>
       <c r="D84">
-        <v>0.04759716724937871</v>
+        <v>0.06098128491992196</v>
       </c>
       <c r="E84">
-        <v>-0.001180108263918352</v>
+        <v>-0.001294748913941569</v>
       </c>
       <c r="F84">
-        <v>-0.1808644375406557</v>
+        <v>0.01258295156203634</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1175523936068305</v>
+        <v>-0.1385124925987439</v>
       </c>
       <c r="C85">
-        <v>0.05069105020220289</v>
+        <v>-0.02569277462412872</v>
       </c>
       <c r="D85">
-        <v>0.009713775500279772</v>
+        <v>0.01468999038088191</v>
       </c>
       <c r="E85">
-        <v>0.06763306147046512</v>
+        <v>0.04050093319027566</v>
       </c>
       <c r="F85">
-        <v>0.03867605849527619</v>
+        <v>0.04533597206093184</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08822968907679515</v>
+        <v>-0.09750774861801682</v>
       </c>
       <c r="C86">
-        <v>0.02450510296473794</v>
+        <v>0.00702936311906831</v>
       </c>
       <c r="D86">
-        <v>-0.006209639818416715</v>
+        <v>0.02225390022407886</v>
       </c>
       <c r="E86">
-        <v>0.1618668409743678</v>
+        <v>0.1381725429299713</v>
       </c>
       <c r="F86">
-        <v>-0.2611576827987032</v>
+        <v>-0.8523533476003509</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1189283603909877</v>
+        <v>-0.09908445071044257</v>
       </c>
       <c r="C87">
-        <v>0.1364349956487509</v>
+        <v>-0.02516233160645061</v>
       </c>
       <c r="D87">
-        <v>-0.005474671702897178</v>
+        <v>0.07755149110527639</v>
       </c>
       <c r="E87">
-        <v>0.07267939195736306</v>
+        <v>-0.05095880186818285</v>
       </c>
       <c r="F87">
-        <v>-0.0306202804094248</v>
+        <v>0.07986552470156988</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05231608599065823</v>
+        <v>-0.0620632086358753</v>
       </c>
       <c r="C88">
-        <v>0.05596056595311468</v>
+        <v>-0.003297420072375054</v>
       </c>
       <c r="D88">
-        <v>0.04346554810772012</v>
+        <v>0.05341463422907698</v>
       </c>
       <c r="E88">
-        <v>0.03010708027202837</v>
+        <v>0.02726071085559803</v>
       </c>
       <c r="F88">
-        <v>0.04442742703637018</v>
+        <v>0.00923531983864615</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2214925324613437</v>
+        <v>-0.1337281704867193</v>
       </c>
       <c r="C89">
-        <v>-0.3609892536987386</v>
+        <v>-0.006978271302575342</v>
       </c>
       <c r="D89">
-        <v>-0.0617040878980919</v>
+        <v>-0.2624986497977404</v>
       </c>
       <c r="E89">
-        <v>-0.01902703381903637</v>
+        <v>-0.09109455161921975</v>
       </c>
       <c r="F89">
-        <v>-0.0118389144373089</v>
+        <v>0.02576155466183616</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1674919867344578</v>
+        <v>-0.1447476293725579</v>
       </c>
       <c r="C90">
-        <v>-0.2517777698443246</v>
+        <v>-0.02427938774767911</v>
       </c>
       <c r="D90">
-        <v>0.002742792864628672</v>
+        <v>-0.270407112913633</v>
       </c>
       <c r="E90">
-        <v>-0.02138841211106262</v>
+        <v>-0.1062864900391925</v>
       </c>
       <c r="F90">
-        <v>0.03990843956194221</v>
+        <v>0.02612499653495929</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07767581907857699</v>
+        <v>-0.1184932862429384</v>
       </c>
       <c r="C91">
-        <v>0.0566826516210869</v>
+        <v>-0.0165649857128736</v>
       </c>
       <c r="D91">
-        <v>0.01212777066513512</v>
+        <v>-0.006172964475363896</v>
       </c>
       <c r="E91">
-        <v>0.04489744700592276</v>
+        <v>0.05699875669115231</v>
       </c>
       <c r="F91">
-        <v>0.009568922491290722</v>
+        <v>-0.02017646859414583</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1875555142804583</v>
+        <v>-0.1481065864302456</v>
       </c>
       <c r="C92">
-        <v>-0.2948033097477537</v>
+        <v>-0.01606307599298987</v>
       </c>
       <c r="D92">
-        <v>-0.03244143538510628</v>
+        <v>-0.3016872181975452</v>
       </c>
       <c r="E92">
-        <v>-0.04298142728609819</v>
+        <v>-0.1019477475833393</v>
       </c>
       <c r="F92">
-        <v>-0.01516096851849304</v>
+        <v>0.02340010310070232</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1716139080038086</v>
+        <v>-0.148733884039649</v>
       </c>
       <c r="C93">
-        <v>-0.30403934579889</v>
+        <v>-0.02072606281646228</v>
       </c>
       <c r="D93">
-        <v>0.03866453683155261</v>
+        <v>-0.2724603311678963</v>
       </c>
       <c r="E93">
-        <v>-0.03024823391655466</v>
+        <v>-0.07251385292653305</v>
       </c>
       <c r="F93">
-        <v>0.03083491942049444</v>
+        <v>0.01978124977424861</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1270454258336315</v>
+        <v>-0.133642944917221</v>
       </c>
       <c r="C94">
-        <v>0.07427962213642814</v>
+        <v>-0.02367582706532246</v>
       </c>
       <c r="D94">
-        <v>-0.00541793572764573</v>
+        <v>0.0464806089982813</v>
       </c>
       <c r="E94">
-        <v>0.03963867297840411</v>
+        <v>0.06139282316282998</v>
       </c>
       <c r="F94">
-        <v>0.02259647444859633</v>
+        <v>0.03043182963748329</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1154821427711927</v>
+        <v>-0.1259850222255406</v>
       </c>
       <c r="C95">
-        <v>0.05591291258511286</v>
+        <v>-0.005635918613663921</v>
       </c>
       <c r="D95">
-        <v>-0.01668641123450938</v>
+        <v>0.09144367871435118</v>
       </c>
       <c r="E95">
-        <v>0.03860324654325747</v>
+        <v>0.04431316532088826</v>
       </c>
       <c r="F95">
-        <v>-0.08986651157823894</v>
+        <v>-0.01212605733623012</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.004342636049674308</v>
+        <v>-0.09753180015942479</v>
       </c>
       <c r="C96">
-        <v>0.009357197446349988</v>
+        <v>0.9890576967557257</v>
       </c>
       <c r="D96">
-        <v>-0.001190586069245361</v>
+        <v>-0.02434055972831156</v>
       </c>
       <c r="E96">
-        <v>0.003875215092842034</v>
+        <v>0.05910857409773616</v>
       </c>
       <c r="F96">
-        <v>-0.02390839695816202</v>
+        <v>0.04842140847056855</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1704638697164145</v>
+        <v>-0.1864904674821639</v>
       </c>
       <c r="C97">
-        <v>0.1840174666303326</v>
+        <v>0.01173292497546477</v>
       </c>
       <c r="D97">
-        <v>-0.1110509578580555</v>
+        <v>-0.008100843084245244</v>
       </c>
       <c r="E97">
-        <v>-0.8868130737364704</v>
+        <v>0.0152044991136599</v>
       </c>
       <c r="F97">
-        <v>0.0701586797751997</v>
+        <v>-0.1748218698683523</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.226118955214666</v>
+        <v>-0.2047402985990942</v>
       </c>
       <c r="C98">
-        <v>0.05612526884801163</v>
+        <v>-0.006807808060158619</v>
       </c>
       <c r="D98">
-        <v>-0.08168626973151434</v>
+        <v>0.01364064325713507</v>
       </c>
       <c r="E98">
-        <v>0.02903800129559161</v>
+        <v>-0.0934360257233033</v>
       </c>
       <c r="F98">
-        <v>-0.05027481227705458</v>
+        <v>-0.1288597046100679</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05946161157416201</v>
+        <v>-0.05712769212718317</v>
       </c>
       <c r="C99">
-        <v>0.02221626824561445</v>
+        <v>0.003437020192501965</v>
       </c>
       <c r="D99">
-        <v>-0.005199759776126391</v>
+        <v>0.03511033034930157</v>
       </c>
       <c r="E99">
-        <v>0.02949959258523104</v>
+        <v>0.02632639971326596</v>
       </c>
       <c r="F99">
-        <v>-0.002131501454823486</v>
+        <v>0.004120020826346076</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002447994247890739</v>
+        <v>-0.1241760351918891</v>
       </c>
       <c r="C100">
-        <v>0.0006183936924361457</v>
+        <v>0.0491605236251141</v>
       </c>
       <c r="D100">
-        <v>-0.005640809783103409</v>
+        <v>0.3370058014944741</v>
       </c>
       <c r="E100">
-        <v>-0.1259830202576931</v>
+        <v>-0.9006989924229012</v>
       </c>
       <c r="F100">
-        <v>0.04172452782332684</v>
+        <v>-0.05863370063741855</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02741612236211394</v>
+        <v>-0.02700282993518746</v>
       </c>
       <c r="C101">
-        <v>0.02391232907597851</v>
+        <v>-0.009174222441798479</v>
       </c>
       <c r="D101">
-        <v>0.02686635282109989</v>
+        <v>0.03064262040153761</v>
       </c>
       <c r="E101">
-        <v>0.02727217786936076</v>
+        <v>0.0110767840410457</v>
       </c>
       <c r="F101">
-        <v>0.01633635995745101</v>
+        <v>-0.01179788125501252</v>
       </c>
     </row>
     <row r="102" spans="1:6">
